--- a/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-nist-csf-2.0.xlsx
+++ b/tools/excel/NIS2/mappings/mapping-annex-technical-and-methodological-requirements-nis2-and-nist-csf-2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\NIS2\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE658847-5B2A-4FFF-AC8A-69EBFEB67C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379E0B5-3EFE-49DD-88B5-2F87D74A188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="2172" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -5711,7 +5711,7 @@
 respective rights holders.</t>
   </si>
   <si>
-    <t>2.1.2_g</t>
+    <t>2.1.2.g</t>
   </si>
 </sst>
 </file>
@@ -6057,7 +6057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6257,7 +6257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31064,8 +31064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
